--- a/soil_imputed.xlsx
+++ b/soil_imputed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="91">
   <si>
     <t>Year_Exp</t>
   </si>
@@ -291,32 +291,25 @@
   </si>
   <si>
     <t>Lima silt loam, 0 to 3 percent slopes</t>
+  </si>
+  <si>
+    <t>sandy loam</t>
+  </si>
+  <si>
+    <t>very fine sandy loam</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="4"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -359,15 +352,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -648,19 +638,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="11.453125" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="1"/>
+    <col min="3" max="3" width="12.1796875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -686,1271 +678,1315 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>42.065910000000002</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>-94.727450000000005</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>45</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>34</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>21</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>3.5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A3" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>42.066206000000001</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>-94.727605999999994</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>45</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>34</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>21</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A4" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>41.99653</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>-93.696188000000006</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>28</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>43</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>29</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>41.998254119999999</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>-93.694470280000004</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>45</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>34</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>21</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>3.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A6" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>41.997500000000002</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>-93.6999</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>45</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>34</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>21</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>3.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A7" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>41.997750000000003</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>-93.696250000000006</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>45</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>34</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>21</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>3.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A8" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>43.326656</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>-89.334396999999996</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>7</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>70</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>23</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>3.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A9" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>42.723511999999999</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>-76.656228999999996</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>26</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>55</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>19</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A11" s="4" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B10" s="1">
         <v>34.729883999999998</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C10" s="1">
         <v>-90.759742000000003</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E10" s="1">
         <v>11.3</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F10" s="1">
         <v>69.5</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G10" s="1">
         <v>19.2</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H10" s="1">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A12" s="4" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B11" s="1">
         <v>34.729874000000002</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C11" s="1">
         <v>-90.759769000000006</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E11" s="1">
         <v>11.3</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F11" s="1">
         <v>69.5</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G11" s="1">
         <v>19.2</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H11" s="1">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A13" s="4" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B12" s="1">
         <v>34.729168999999999</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C12" s="1">
         <v>-90.760886999999997</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E12" s="1">
         <v>11.3</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F12" s="1">
         <v>69.5</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G12" s="1">
         <v>19.2</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H12" s="1">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A14" s="4" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B13" s="1">
         <v>35.838816000000001</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C13" s="1">
         <v>-90.665006000000005</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E13" s="1">
         <v>11.3</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F13" s="1">
         <v>69.5</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G13" s="1">
         <v>19.2</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H13" s="1">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A15" s="4" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B14" s="1">
         <v>35.674717999999999</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C14" s="1">
         <v>-90.074889999999996</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E14" s="1">
         <v>0.9</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F14" s="1">
         <v>42.7</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G14" s="1">
         <v>56.4</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H14" s="1">
         <v>3.1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A16" s="4" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B15" s="1">
         <v>35.673794000000001</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C15" s="1">
         <v>-90.075295999999994</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E15" s="1">
         <v>0.9</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F15" s="1">
         <v>42.7</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G15" s="1">
         <v>56.4</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H15" s="1">
         <v>3.1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A17" s="4" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B16" s="1">
         <v>38.637405000000001</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C16" s="1">
         <v>-75.204048</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E16" s="1">
         <v>81</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F16" s="1">
         <v>13</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G16" s="1">
         <v>6</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H16" s="1">
         <v>2.5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A18" s="4" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B17" s="1">
         <v>38.629976999999997</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C17" s="1">
         <v>-75.465973000000005</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E17" s="1">
         <v>80</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F17" s="1">
         <v>14</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G17" s="1">
         <v>6</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H17" s="1">
         <v>1.2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A19" s="4" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B18" s="1">
         <v>33.726861999999997</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C18" s="1">
         <v>-83.297769000000002</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D18" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E18" s="1">
         <v>65</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F18" s="1">
         <v>20</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G18" s="1">
         <v>15</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H18" s="1">
         <v>0.25</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A20" s="4" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B19" s="1">
         <v>42.065930000000002</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C19" s="1">
         <v>-94.727419999999995</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D19" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E19" s="1">
         <v>45</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F19" s="1">
         <v>34</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G19" s="1">
         <v>21</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H19" s="1">
         <v>3.5</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A21" s="4" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B20" s="1">
         <v>41.987130000000001</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C20" s="1">
         <v>-92.259750999999994</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D20" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E20" s="2">
         <v>3</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F20" s="2">
         <v>67</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G20" s="2">
         <v>30</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H20" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A22" s="4" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B21" s="1">
         <v>41.987380000000002</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C21" s="1">
         <v>-92.260159999999999</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D21" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E21" s="2">
         <v>3</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F21" s="2">
         <v>67</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G21" s="2">
         <v>30</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H21" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A23" s="4" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B22" s="1">
         <v>41.987450000000003</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C22" s="1">
         <v>-92.260140000000007</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D22" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E22" s="2">
         <v>3</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F22" s="2">
         <v>67</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G22" s="2">
         <v>30</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H22" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A24" s="4" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B23" s="1">
         <v>41.198644999999999</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C23" s="1">
         <v>-91.486942999999997</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D23" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E23" s="2">
         <v>2</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F23" s="2">
         <v>68</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G23" s="2">
         <v>30</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H23" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A25" s="4" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B24" s="1">
         <v>41.199816570000003</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C24" s="1">
         <v>-91.495179399999998</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E24" s="2">
         <v>2</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F24" s="2">
         <v>69</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G24" s="2">
         <v>29</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H24" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A26" s="4" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B25" s="1">
         <v>40.084890000000001</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C25" s="1">
         <v>-88.225409999999997</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D25" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E25" s="2">
         <v>5</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F25" s="2">
         <v>71</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G25" s="2">
         <v>24</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H25" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A27" s="4" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B26" s="1">
         <v>40.488</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C26" s="1">
         <v>-87.006</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D26" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E26" s="1">
         <v>10</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F26" s="1">
         <v>57</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G26" s="1">
         <v>33</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H26" s="1">
         <v>4.5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A28" s="4" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B27" s="1">
         <v>40.476660000000003</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C27" s="1">
         <v>-87.000559999999993</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D27" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E27" s="1">
         <v>16</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F27" s="1">
         <v>62</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G27" s="1">
         <v>22</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H27" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A29" s="4" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B28" s="1">
         <v>40.478349999999999</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C28" s="1">
         <v>-86.990129999999994</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D28" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="E28" s="1">
+        <v>16</v>
+      </c>
+      <c r="F28" s="1">
+        <v>62</v>
+      </c>
+      <c r="G28" s="1">
+        <v>22</v>
+      </c>
+      <c r="H28" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="1">
+        <v>39.215864000000003</v>
+      </c>
+      <c r="C29" s="1">
+        <v>-96.605188999999996</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="E29" s="4">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F29" s="4">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G29" s="4">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="H29" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A30" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="4">
-        <v>39.215864000000003</v>
-      </c>
-      <c r="C30" s="4">
-        <v>-96.605188999999996</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" s="7">
-        <v>4</v>
-      </c>
-      <c r="F30" s="7">
-        <v>61</v>
-      </c>
-      <c r="G30" s="7">
-        <v>35</v>
-      </c>
-      <c r="H30" s="7">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="1">
+        <v>39.144089999999998</v>
+      </c>
+      <c r="C30" s="1">
+        <v>-96.629383000000004</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="4">
+        <v>42</v>
+      </c>
+      <c r="F30" s="4">
+        <v>51</v>
+      </c>
+      <c r="G30" s="4">
+        <v>7</v>
+      </c>
+      <c r="H30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="1">
+        <v>38.928744999999999</v>
+      </c>
+      <c r="C31" s="1">
+        <v>-92.352163000000004</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="4">
+        <v>12.1</v>
+      </c>
+      <c r="F31" s="4">
+        <v>72.7</v>
+      </c>
+      <c r="G31" s="4">
+        <v>15.2</v>
+      </c>
+      <c r="H31" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="1">
+        <v>38.898533329999999</v>
+      </c>
+      <c r="C32" s="1">
+        <v>-92.207583330000006</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F32" s="4">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="G32" s="4">
+        <v>17.7</v>
+      </c>
+      <c r="H32" s="4">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="1">
+        <v>40.834392000000001</v>
+      </c>
+      <c r="C33" s="1">
+        <v>-96.656687000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="1">
+        <v>41.166356</v>
+      </c>
+      <c r="C34" s="1">
+        <v>-96.417260999999996</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="1">
+        <v>10</v>
+      </c>
+      <c r="F34" s="1">
+        <v>68</v>
+      </c>
+      <c r="G34" s="1">
+        <v>22</v>
+      </c>
+      <c r="H34" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A31" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="4">
-        <v>39.144089999999998</v>
-      </c>
-      <c r="C31" s="4">
-        <v>-96.629383000000004</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E31" s="7">
-        <v>42</v>
-      </c>
-      <c r="F31" s="7">
-        <v>51</v>
-      </c>
-      <c r="G31" s="7">
-        <v>7</v>
-      </c>
-      <c r="H31" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A32" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="4">
-        <v>38.928744999999999</v>
-      </c>
-      <c r="C32" s="4">
-        <v>-92.352163000000004</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E32" s="7">
-        <v>12.1</v>
-      </c>
-      <c r="F32" s="7">
-        <v>72.7</v>
-      </c>
-      <c r="G32" s="7">
-        <v>15.2</v>
-      </c>
-      <c r="H32" s="7">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A33" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" s="4">
-        <v>38.898533329999999</v>
-      </c>
-      <c r="C33" s="4">
-        <v>-92.207583330000006</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E33" s="7">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="F33" s="7">
-        <v>77.400000000000006</v>
-      </c>
-      <c r="G33" s="7">
-        <v>17.7</v>
-      </c>
-      <c r="H33" s="7">
-        <v>1.87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A34" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="4">
-        <v>40.834392000000001</v>
-      </c>
-      <c r="C34" s="4">
-        <v>-96.656687000000005</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A35" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="4">
-        <v>41.166356</v>
-      </c>
-      <c r="C35" s="4">
-        <v>-96.417260999999996</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>80</v>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="1">
+        <v>41.052978000000003</v>
+      </c>
+      <c r="C35" s="1">
+        <v>-100.749467</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="E35" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" s="4">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G35" s="4">
         <v>22</v>
       </c>
       <c r="H35" s="4">
+        <v>2</v>
+      </c>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="1">
+        <v>41.050973999999997</v>
+      </c>
+      <c r="C36" s="1">
+        <v>-100.74663200000001</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36" s="4">
+        <v>11</v>
+      </c>
+      <c r="F36" s="4">
+        <v>67</v>
+      </c>
+      <c r="G36" s="4">
+        <v>22</v>
+      </c>
+      <c r="H36" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="1">
+        <v>41.163530000000002</v>
+      </c>
+      <c r="C37" s="1">
+        <v>-101.99598</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" s="1">
+        <v>38</v>
+      </c>
+      <c r="F37" s="1">
+        <v>44</v>
+      </c>
+      <c r="G37" s="1">
+        <v>18</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="1">
+        <v>41.158405999999999</v>
+      </c>
+      <c r="C38" s="1">
+        <v>-101.988317</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" s="1">
+        <v>38</v>
+      </c>
+      <c r="F38" s="1">
+        <v>44</v>
+      </c>
+      <c r="G38" s="1">
+        <v>18</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="1">
+        <v>41.161999999999999</v>
+      </c>
+      <c r="C39" s="1">
+        <v>-96.409000000000006</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="1">
+        <v>6</v>
+      </c>
+      <c r="F39" s="1">
+        <v>68</v>
+      </c>
+      <c r="G39" s="1">
+        <v>26</v>
+      </c>
+      <c r="H39" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="1">
+        <v>41.167022000000003</v>
+      </c>
+      <c r="C40" s="1">
+        <v>-96.417192</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40" s="1">
+        <v>7</v>
+      </c>
+      <c r="F40" s="1">
+        <v>57</v>
+      </c>
+      <c r="G40" s="1">
+        <v>36</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="1">
+        <v>41.161999999999999</v>
+      </c>
+      <c r="C41" s="1">
+        <v>-96.409000000000006</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="1">
+        <v>6</v>
+      </c>
+      <c r="F41" s="1">
+        <v>68</v>
+      </c>
+      <c r="G41" s="1">
+        <v>26</v>
+      </c>
+      <c r="H41" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="1">
+        <v>42.728765000000003</v>
+      </c>
+      <c r="C42" s="1">
+        <v>-76.651653999999994</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E42" s="1">
+        <v>26</v>
+      </c>
+      <c r="F42" s="1">
+        <v>55</v>
+      </c>
+      <c r="G42" s="1">
+        <v>19</v>
+      </c>
+      <c r="H42" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="16" x14ac:dyDescent="0.8">
-      <c r="A36" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="4">
-        <v>41.052978000000003</v>
-      </c>
-      <c r="C36" s="4">
-        <v>-100.749467</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E36" s="7">
-        <v>11</v>
-      </c>
-      <c r="F36" s="7">
-        <v>67</v>
-      </c>
-      <c r="G36" s="7">
-        <v>22</v>
-      </c>
-      <c r="H36" s="7">
-        <v>2</v>
-      </c>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A37" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="4">
-        <v>41.050973999999997</v>
-      </c>
-      <c r="C37" s="4">
-        <v>-100.74663200000001</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E37" s="7">
-        <v>11</v>
-      </c>
-      <c r="F37" s="7">
-        <v>67</v>
-      </c>
-      <c r="G37" s="7">
-        <v>22</v>
-      </c>
-      <c r="H37" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A38" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="4">
-        <v>41.163530000000002</v>
-      </c>
-      <c r="C38" s="4">
-        <v>-101.99598</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E38" s="4">
-        <v>38</v>
-      </c>
-      <c r="F38" s="4">
-        <v>44</v>
-      </c>
-      <c r="G38" s="4">
-        <v>18</v>
-      </c>
-      <c r="H38" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A39" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" s="4">
-        <v>41.158405999999999</v>
-      </c>
-      <c r="C39" s="4">
-        <v>-101.988317</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E39" s="4">
-        <v>38</v>
-      </c>
-      <c r="F39" s="4">
-        <v>44</v>
-      </c>
-      <c r="G39" s="4">
-        <v>18</v>
-      </c>
-      <c r="H39" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A40" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" s="4">
-        <v>41.161999999999999</v>
-      </c>
-      <c r="C40" s="4">
-        <v>-96.409000000000006</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E40" s="4">
-        <v>6</v>
-      </c>
-      <c r="F40" s="4">
-        <v>68</v>
-      </c>
-      <c r="G40" s="4">
-        <v>26</v>
-      </c>
-      <c r="H40" s="4">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A41" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" s="4">
-        <v>41.167022000000003</v>
-      </c>
-      <c r="C41" s="4">
-        <v>-96.417192</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E41" s="4">
-        <v>7</v>
-      </c>
-      <c r="F41" s="4">
-        <v>57</v>
-      </c>
-      <c r="G41" s="4">
-        <v>36</v>
-      </c>
-      <c r="H41" s="4">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A42" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42" s="4">
-        <v>41.161999999999999</v>
-      </c>
-      <c r="C42" s="4">
-        <v>-96.409000000000006</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E42" s="4">
-        <v>6</v>
-      </c>
-      <c r="F42" s="4">
-        <v>68</v>
-      </c>
-      <c r="G42" s="4">
-        <v>26</v>
-      </c>
-      <c r="H42" s="4">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A43" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43" s="4">
-        <v>42.728765000000003</v>
-      </c>
-      <c r="C43" s="4">
-        <v>-76.651653999999994</v>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="1">
+        <v>42.729199999999999</v>
+      </c>
+      <c r="C43" s="1">
+        <v>-76.652450000000002</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="1">
         <v>26</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="1">
         <v>55</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="1">
         <v>19</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H43" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A44" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44" s="4">
-        <v>42.729199999999999</v>
-      </c>
-      <c r="C44" s="4">
-        <v>-76.652450000000002</v>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="1">
+        <v>39.856653000000001</v>
+      </c>
+      <c r="C44" s="1">
+        <v>-83.670361</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E44" s="4">
-        <v>26</v>
-      </c>
-      <c r="F44" s="4">
+        <v>84</v>
+      </c>
+      <c r="E44" s="1">
+        <v>20</v>
+      </c>
+      <c r="F44" s="1">
+        <v>49</v>
+      </c>
+      <c r="G44" s="1">
+        <v>31</v>
+      </c>
+      <c r="H44" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A45" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G44" s="4">
-        <v>19</v>
-      </c>
-      <c r="H44" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A45" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45" s="4">
-        <v>39.856653000000001</v>
-      </c>
-      <c r="C45" s="4">
-        <v>-83.670361</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E45" s="4">
-        <v>20</v>
-      </c>
-      <c r="F45" s="4">
-        <v>49</v>
-      </c>
-      <c r="G45" s="4">
-        <v>31</v>
-      </c>
-      <c r="H45" s="4">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A46" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46" s="4">
+      <c r="B45" s="1">
         <v>43.497025000000001</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C45" s="1">
         <v>-80.426961109999993</v>
       </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A47" s="4" t="s">
+      <c r="D45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E45" s="1">
+        <v>65</v>
+      </c>
+      <c r="F45" s="1">
+        <v>18</v>
+      </c>
+      <c r="G45" s="1">
+        <v>17</v>
+      </c>
+      <c r="H45" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B46" s="1">
         <v>42.454197219999998</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C46" s="1">
         <v>-81.883111110000002</v>
       </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A48" s="4" t="s">
+      <c r="D46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" s="1">
+        <v>70</v>
+      </c>
+      <c r="F46" s="1">
+        <v>15</v>
+      </c>
+      <c r="G46" s="1">
+        <v>15</v>
+      </c>
+      <c r="H46" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A47" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B47" s="1">
         <v>42.454331000000003</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C47" s="1">
         <v>-81.880905999999996</v>
       </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A49" s="4" t="s">
+      <c r="D47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" s="1">
+        <v>70</v>
+      </c>
+      <c r="F47" s="1">
+        <v>15</v>
+      </c>
+      <c r="G47" s="1">
+        <v>15</v>
+      </c>
+      <c r="H47" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A48" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B48" s="1">
         <v>42.452748999999997</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C48" s="1">
         <v>-81.883454999999998</v>
       </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A50" s="4" t="s">
+      <c r="D48" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" s="1">
+        <v>70</v>
+      </c>
+      <c r="F48" s="1">
+        <v>15</v>
+      </c>
+      <c r="G48" s="1">
+        <v>15</v>
+      </c>
+      <c r="H48" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A49" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B49" s="1">
         <v>42.452765999999997</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C49" s="1">
         <v>-81.883460999999997</v>
       </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-    </row>
-    <row r="51" spans="1:9" ht="16" x14ac:dyDescent="0.8">
-      <c r="A51" s="4" t="s">
+      <c r="D49" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E49" s="1">
+        <v>70</v>
+      </c>
+      <c r="F49" s="1">
+        <v>15</v>
+      </c>
+      <c r="G49" s="1">
+        <v>15</v>
+      </c>
+      <c r="H49" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A50" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B50" s="1">
         <v>34.184666669999999</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C50" s="1">
         <v>-101.9494444</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D50" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E50" s="1">
         <v>23.6</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F50" s="1">
         <v>44.2</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G50" s="1">
         <v>32.200000000000003</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H50" s="1">
         <v>2.5</v>
       </c>
-      <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A52" s="4" t="s">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A51" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B51" s="1">
         <v>43.057061109999999</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C51" s="1">
         <v>-89.530986110000001</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D51" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E51" s="1">
         <v>7.2</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F51" s="1">
         <v>70.3</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G51" s="1">
         <v>22.5</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H51" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A53" s="4" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A52" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B52" s="1">
         <v>43.054433000000003</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C52" s="1">
         <v>-89.528750000000002</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D52" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E52" s="1">
         <v>7</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F52" s="1">
         <v>69.5</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G52" s="1">
         <v>23.5</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H52" s="1">
         <v>4</v>
       </c>
     </row>

--- a/soil_imputed.xlsx
+++ b/soil_imputed.xlsx
@@ -35,9 +35,6 @@
     <t>long</t>
   </si>
   <si>
-    <t>MapUnitName</t>
-  </si>
-  <si>
     <t>Sand</t>
   </si>
   <si>
@@ -297,6 +294,9 @@
   </si>
   <si>
     <t>very fine sandy loam</t>
+  </si>
+  <si>
+    <t>Texture</t>
   </si>
 </sst>
 </file>
@@ -640,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.7"/>
@@ -663,24 +663,24 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1">
         <v>42.065910000000002</v>
@@ -689,7 +689,7 @@
         <v>-94.727450000000005</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1">
         <v>45</v>
@@ -706,7 +706,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>42.066206000000001</v>
@@ -715,7 +715,7 @@
         <v>-94.727605999999994</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1">
         <v>45</v>
@@ -732,7 +732,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
         <v>41.99653</v>
@@ -741,7 +741,7 @@
         <v>-93.696188000000006</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1">
         <v>28</v>
@@ -758,7 +758,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
         <v>41.998254119999999</v>
@@ -767,7 +767,7 @@
         <v>-93.694470280000004</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1">
         <v>45</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1">
         <v>41.997500000000002</v>
@@ -793,7 +793,7 @@
         <v>-93.6999</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1">
         <v>45</v>
@@ -810,7 +810,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1">
         <v>41.997750000000003</v>
@@ -819,7 +819,7 @@
         <v>-93.696250000000006</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1">
         <v>45</v>
@@ -836,7 +836,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1">
         <v>43.326656</v>
@@ -845,7 +845,7 @@
         <v>-89.334396999999996</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1">
         <v>7</v>
@@ -862,7 +862,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1">
         <v>42.723511999999999</v>
@@ -871,7 +871,7 @@
         <v>-76.656228999999996</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="1">
         <v>26</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1">
         <v>34.729883999999998</v>
@@ -897,7 +897,7 @@
         <v>-90.759742000000003</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" s="1">
         <v>11.3</v>
@@ -914,7 +914,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1">
         <v>34.729874000000002</v>
@@ -923,7 +923,7 @@
         <v>-90.759769000000006</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11" s="1">
         <v>11.3</v>
@@ -940,7 +940,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1">
         <v>34.729168999999999</v>
@@ -949,7 +949,7 @@
         <v>-90.760886999999997</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E12" s="1">
         <v>11.3</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1">
         <v>35.838816000000001</v>
@@ -975,7 +975,7 @@
         <v>-90.665006000000005</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E13" s="1">
         <v>11.3</v>
@@ -992,7 +992,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1">
         <v>35.674717999999999</v>
@@ -1001,7 +1001,7 @@
         <v>-90.074889999999996</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E14" s="1">
         <v>0.9</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1">
         <v>35.673794000000001</v>
@@ -1027,7 +1027,7 @@
         <v>-90.075295999999994</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15" s="1">
         <v>0.9</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="1">
         <v>38.637405000000001</v>
@@ -1053,7 +1053,7 @@
         <v>-75.204048</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E16" s="1">
         <v>81</v>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="1">
         <v>38.629976999999997</v>
@@ -1079,7 +1079,7 @@
         <v>-75.465973000000005</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E17" s="1">
         <v>80</v>
@@ -1096,7 +1096,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1">
         <v>33.726861999999997</v>
@@ -1105,7 +1105,7 @@
         <v>-83.297769000000002</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18" s="1">
         <v>65</v>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="1">
         <v>42.065930000000002</v>
@@ -1131,7 +1131,7 @@
         <v>-94.727419999999995</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E19" s="1">
         <v>45</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="1">
         <v>41.987130000000001</v>
@@ -1157,7 +1157,7 @@
         <v>-92.259750999999994</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E20" s="2">
         <v>3</v>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="1">
         <v>41.987380000000002</v>
@@ -1183,7 +1183,7 @@
         <v>-92.260159999999999</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E21" s="2">
         <v>3</v>
@@ -1200,7 +1200,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="1">
         <v>41.987450000000003</v>
@@ -1209,7 +1209,7 @@
         <v>-92.260140000000007</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E22" s="2">
         <v>3</v>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="1">
         <v>41.198644999999999</v>
@@ -1235,7 +1235,7 @@
         <v>-91.486942999999997</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E23" s="2">
         <v>2</v>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="1">
         <v>41.199816570000003</v>
@@ -1261,7 +1261,7 @@
         <v>-91.495179399999998</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E24" s="2">
         <v>2</v>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" s="1">
         <v>40.084890000000001</v>
@@ -1287,7 +1287,7 @@
         <v>-88.225409999999997</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E25" s="2">
         <v>5</v>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" s="1">
         <v>40.488</v>
@@ -1313,7 +1313,7 @@
         <v>-87.006</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E26" s="1">
         <v>10</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" s="1">
         <v>40.476660000000003</v>
@@ -1339,7 +1339,7 @@
         <v>-87.000559999999993</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E27" s="1">
         <v>16</v>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" s="1">
         <v>40.478349999999999</v>
@@ -1365,7 +1365,7 @@
         <v>-86.990129999999994</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E28" s="1">
         <v>16</v>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" s="1">
         <v>39.215864000000003</v>
@@ -1391,7 +1391,7 @@
         <v>-96.605188999999996</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E29" s="4">
         <v>4</v>
@@ -1408,7 +1408,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" s="1">
         <v>39.144089999999998</v>
@@ -1417,7 +1417,7 @@
         <v>-96.629383000000004</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E30" s="4">
         <v>42</v>
@@ -1434,7 +1434,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" s="1">
         <v>38.928744999999999</v>
@@ -1443,7 +1443,7 @@
         <v>-92.352163000000004</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E31" s="4">
         <v>12.1</v>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" s="1">
         <v>38.898533329999999</v>
@@ -1469,7 +1469,7 @@
         <v>-92.207583330000006</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E32" s="4">
         <v>4.9000000000000004</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A33" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" s="1">
         <v>40.834392000000001</v>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A34" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" s="1">
         <v>41.166356</v>
@@ -1506,7 +1506,7 @@
         <v>-96.417260999999996</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E34" s="1">
         <v>10</v>
@@ -1523,7 +1523,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A35" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" s="1">
         <v>41.052978000000003</v>
@@ -1532,7 +1532,7 @@
         <v>-100.749467</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E35" s="4">
         <v>11</v>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A36" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" s="1">
         <v>41.050973999999997</v>
@@ -1559,7 +1559,7 @@
         <v>-100.74663200000001</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E36" s="4">
         <v>11</v>
@@ -1576,7 +1576,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A37" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37" s="1">
         <v>41.163530000000002</v>
@@ -1585,7 +1585,7 @@
         <v>-101.99598</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E37" s="1">
         <v>38</v>
@@ -1602,7 +1602,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B38" s="1">
         <v>41.158405999999999</v>
@@ -1611,7 +1611,7 @@
         <v>-101.988317</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E38" s="1">
         <v>38</v>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A39" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39" s="1">
         <v>41.161999999999999</v>
@@ -1637,7 +1637,7 @@
         <v>-96.409000000000006</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E39" s="1">
         <v>6</v>
@@ -1654,7 +1654,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A40" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B40" s="1">
         <v>41.167022000000003</v>
@@ -1663,7 +1663,7 @@
         <v>-96.417192</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E40" s="1">
         <v>7</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A41" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41" s="1">
         <v>41.161999999999999</v>
@@ -1689,7 +1689,7 @@
         <v>-96.409000000000006</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E41" s="1">
         <v>6</v>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A42" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B42" s="1">
         <v>42.728765000000003</v>
@@ -1715,7 +1715,7 @@
         <v>-76.651653999999994</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E42" s="1">
         <v>26</v>
@@ -1732,7 +1732,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A43" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B43" s="1">
         <v>42.729199999999999</v>
@@ -1741,7 +1741,7 @@
         <v>-76.652450000000002</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E43" s="1">
         <v>26</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A44" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44" s="1">
         <v>39.856653000000001</v>
@@ -1767,7 +1767,7 @@
         <v>-83.670361</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E44" s="1">
         <v>20</v>
@@ -1784,7 +1784,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A45" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B45" s="1">
         <v>43.497025000000001</v>
@@ -1793,7 +1793,7 @@
         <v>-80.426961109999993</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E45" s="1">
         <v>65</v>
@@ -1810,7 +1810,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A46" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B46" s="1">
         <v>42.454197219999998</v>
@@ -1819,7 +1819,7 @@
         <v>-81.883111110000002</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E46" s="1">
         <v>70</v>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A47" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B47" s="1">
         <v>42.454331000000003</v>
@@ -1845,7 +1845,7 @@
         <v>-81.880905999999996</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E47" s="1">
         <v>70</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A48" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B48" s="1">
         <v>42.452748999999997</v>
@@ -1871,7 +1871,7 @@
         <v>-81.883454999999998</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E48" s="1">
         <v>70</v>
@@ -1888,7 +1888,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A49" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B49" s="1">
         <v>42.452765999999997</v>
@@ -1897,7 +1897,7 @@
         <v>-81.883460999999997</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E49" s="1">
         <v>70</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A50" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B50" s="1">
         <v>34.184666669999999</v>
@@ -1923,7 +1923,7 @@
         <v>-101.9494444</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E50" s="1">
         <v>23.6</v>
@@ -1940,7 +1940,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A51" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B51" s="1">
         <v>43.057061109999999</v>
@@ -1949,7 +1949,7 @@
         <v>-89.530986110000001</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E51" s="1">
         <v>7.2</v>
@@ -1966,7 +1966,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A52" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B52" s="1">
         <v>43.054433000000003</v>
@@ -1975,7 +1975,7 @@
         <v>-89.528750000000002</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E52" s="1">
         <v>7</v>
